--- a/biology/Botanique/Rosier_tomenteux/Rosier_tomenteux.xlsx
+++ b/biology/Botanique/Rosier_tomenteux/Rosier_tomenteux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa tomentosa est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Caninae, originaire de toute l'Europe sauf le grand Nord.
 Il est cultivé depuis 1820.
@@ -512,13 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau épineux de 2 mètres de haut, caractérisé par ses rameaux en zigzag munis d'aiguillons.
 Les feuilles imparipennées, d'un vert foncé, comptent de 5 à 7 folioles.
 Les fleurs, de 4 cm de diamètre, varient du rose clair au blanc, elles éclosent en juin  - juillet.
 Elles donnent des fruits, des cynorrhodons ronds, d'un diamètre de 1 à 2 cm, de couleur  rouge
-[1]
 </t>
         </is>
       </c>
@@ -547,7 +560,9 @@
           <t>Cultivar</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa tomentosa 'Cinerascens' au feuillage gris clair.
 </t>
@@ -578,9 +593,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa tomentosa est protégé dans le Nord-Pas-de-Calais[2]. Le Conservatoire botanique national de Bailleul souligne les menaces de destruction de ses habitats et la nécessité de les protéger[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa tomentosa est protégé dans le Nord-Pas-de-Calais. Le Conservatoire botanique national de Bailleul souligne les menaces de destruction de ses habitats et la nécessité de les protéger.
 </t>
         </is>
       </c>
